--- a/spreadsheets/Shaco.xlsx
+++ b/spreadsheets/Shaco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E50247-EAF2-4494-BC74-1849FE7F4475}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC56300-DF87-42A5-8B24-A5E7A1C54C4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>https://www.youtube.com/user/ArabischeWelleHD</t>
   </si>
   <si>
-    <t>Desperate Shaco is considered by many to be one of the best Shaco players and has been creating educational Shaco content as well as streaming for 2 years, reaching Masters in both season 8 and 9</t>
-  </si>
-  <si>
     <t>Really heavy ganker so easy to outfarm and counter jungle. Avoid fighting her before lvl 6 and try to dodge her ult with your ult. Concentrate on objectives and counter gank when possible</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>Try to avoid fighting him at any cost. Stick to farming and ganks that you know are going to work out. You can try to counter gank him and or just play on the opposite side of the map where he is to try and  avoid him.</t>
+  </si>
+  <si>
+    <t>Desperate Shaco is considered by many to be one of the best Shaco players and has been creating educational Shaco content as well as streaming for 2 years, reaching Masters in both season 8 and 9.</t>
   </si>
 </sst>
 </file>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>65</v>
@@ -970,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1017,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637B386-EF92-4D05-9F9D-7F0D57FE5347}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -1103,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>58</v>
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>63</v>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>68</v>
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>69</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -1251,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
